--- a/files/Requisitos e Regras de Negócio/Requisitos Não Funcionais.xlsx
+++ b/files/Requisitos e Regras de Negócio/Requisitos Não Funcionais.xlsx
@@ -82,9 +82,6 @@
     <t>Criptografar dados de autenticação</t>
   </si>
   <si>
-    <t>Possuir banco de dados relacional</t>
-  </si>
-  <si>
     <t>Demandar conexão com a internet</t>
   </si>
   <si>
@@ -98,6 +95,9 @@
   </si>
   <si>
     <t>Utilizar "soft delete" em entidades críticas: não apagar, mas inativar</t>
+  </si>
+  <si>
+    <t>Utilizar Sistema Gerenciador de Banco de Dados MySQL</t>
   </si>
 </sst>
 </file>
@@ -594,7 +594,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -617,7 +617,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -649,7 +649,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -665,7 +665,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -673,7 +673,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -681,7 +681,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -689,7 +689,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/files/Requisitos e Regras de Negócio/Requisitos Não Funcionais.xlsx
+++ b/files/Requisitos e Regras de Negócio/Requisitos Não Funcionais.xlsx
@@ -70,18 +70,9 @@
     <t>RNF-10</t>
   </si>
   <si>
-    <t>Ser multiplataforma</t>
-  </si>
-  <si>
     <t>Permitir acessos simultâneos</t>
   </si>
   <si>
-    <t>Utilizar linguagens HTML, CSS e JavaScript, bem como suas variantes</t>
-  </si>
-  <si>
-    <t>Criptografar dados de autenticação</t>
-  </si>
-  <si>
     <t>Demandar conexão com a internet</t>
   </si>
   <si>
@@ -94,10 +85,19 @@
     <t>Possuir código fonte organizado para fácil manutenção</t>
   </si>
   <si>
-    <t>Utilizar "soft delete" em entidades críticas: não apagar, mas inativar</t>
-  </si>
-  <si>
-    <t>Utilizar Sistema Gerenciador de Banco de Dados MySQL</t>
+    <t>Ser um sistema web</t>
+  </si>
+  <si>
+    <t>Utilizar as seguintes linguagens/tecnologias: Java + Spring Boot + Hibernate e Javascript + Node.js + Svelte</t>
+  </si>
+  <si>
+    <t>Utilizar MySQL como Sistema Gerenciador de Banco de Dados</t>
+  </si>
+  <si>
+    <t>Criptografar senhas</t>
+  </si>
+  <si>
+    <t>Utilizar "soft delete" em dados críticos: não apagar, mas inativar</t>
   </si>
 </sst>
 </file>
@@ -253,29 +253,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -594,17 +602,17 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="66.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="14" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="7" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -613,83 +621,83 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="6" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="6" t="s">
+    <row r="11" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/files/Requisitos e Regras de Negócio/Requisitos Não Funcionais.xlsx
+++ b/files/Requisitos e Regras de Negócio/Requisitos Não Funcionais.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Descrição Resumida</t>
   </si>
@@ -98,6 +98,18 @@
   </si>
   <si>
     <t>Utilizar "soft delete" em dados críticos: não apagar, mas inativar</t>
+  </si>
+  <si>
+    <t>RNF-11</t>
+  </si>
+  <si>
+    <t>Permitir acesso ao sistema através de sessão única</t>
+  </si>
+  <si>
+    <t>Validar entradas de usuários</t>
+  </si>
+  <si>
+    <t>RNF-12</t>
   </si>
 </sst>
 </file>
@@ -146,7 +158,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -249,11 +261,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -284,6 +309,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -599,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -692,11 +720,27 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>14</v>
       </c>
     </row>
